--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233664.995947987</v>
+        <v>-1235563.228052111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555724.8544224389</v>
+        <v>815508.3360571874</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>69.26318245927575</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>377.063216634206</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>233.9180940126558</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.7977442244089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>99.44420492154106</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>140.1336128527356</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>350.5766081898791</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>338.4244703664878</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.4417790696915</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.693200015578107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>333.3587721200973</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>166.0292193511565</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>117.1365314849864</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>53.28409262698404</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>283.3815461749962</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>105.3344910485233</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>78.30632418107855</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>75.80960945454571</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>39.00613536649292</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>73.32974373357881</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>42.96165421080021</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.733841663483</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.0832994039664</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>97.79450565355923</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>116.7279925914319</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.700090052297</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415277</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1577.57523382438</v>
+        <v>1452.115530175776</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.612716883969</v>
+        <v>1083.153013235364</v>
       </c>
       <c r="D2" t="n">
-        <v>850.3470182772182</v>
+        <v>1013.190202670439</v>
       </c>
       <c r="E2" t="n">
-        <v>464.558765678974</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>457.6132649297705</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>443.6898608683614</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1967.714565800192</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1577.57523382438</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>627.680292366494</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>627.680292366494</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2716929833838</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2716929833838</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2716929833838</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.812828570805</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1211.812828570805</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>826.0245759725606</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296041</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296041</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296041</v>
+        <v>601.4201164592713</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C8" t="n">
-        <v>962.0987983716307</v>
+        <v>1018.423421381102</v>
       </c>
       <c r="D8" t="n">
-        <v>962.0987983716307</v>
+        <v>1018.423421381102</v>
       </c>
       <c r="E8" t="n">
-        <v>962.0987983716307</v>
+        <v>632.6351687828574</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.6492639932498</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>536.6170209242687</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>609.8092554337209</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,34 +5051,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>998.694709484362</v>
       </c>
       <c r="M12" t="n">
-        <v>1509.998813918811</v>
+        <v>1319.030029014064</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.519469556429</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>618.005323167754</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>449.0691402398471</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>298.9525008275114</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>151.0394072451182</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347411</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347411</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1020.446367141524</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.672284522552</v>
+        <v>1020.446367141524</v>
       </c>
       <c r="X13" t="n">
-        <v>984.6827336245351</v>
+        <v>1020.446367141524</v>
       </c>
       <c r="Y13" t="n">
-        <v>763.890154481005</v>
+        <v>799.6537879979937</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>511.8732695736286</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>758.6383974800927</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746876</v>
+        <v>1527.006543872554</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>672.4909068465487</v>
+        <v>967.1285778917505</v>
       </c>
       <c r="C16" t="n">
-        <v>503.5547239186418</v>
+        <v>967.1285778917505</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>817.0119384794148</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>669.0988448970216</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>522.2088973991113</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>354.0335757189318</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>203.6155672668751</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1108.823859882675</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>1108.823859882675</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V16" t="n">
-        <v>854.1393716767884</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W16" t="n">
-        <v>854.1393716767884</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X16" t="n">
-        <v>854.1393716767884</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y16" t="n">
-        <v>854.1393716767884</v>
+        <v>967.1285778917505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>525.6009593486384</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V19" t="n">
-        <v>1035.810708529129</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W19" t="n">
-        <v>746.3935384921685</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X19" t="n">
-        <v>746.3935384921685</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.6009593486384</v>
+        <v>468.5954956259891</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>420.3226148324574</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="C22" t="n">
-        <v>420.3226148324574</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="D22" t="n">
-        <v>420.3226148324574</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="E22" t="n">
-        <v>420.3226148324574</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>420.3226148324574</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>252.147293152278</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324574</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X22" t="n">
-        <v>420.3226148324574</v>
+        <v>468.5954956259891</v>
       </c>
       <c r="Y22" t="n">
-        <v>420.3226148324574</v>
+        <v>468.5954956259891</v>
       </c>
     </row>
     <row r="23">
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1158.508079257328</v>
       </c>
       <c r="U25" t="n">
-        <v>964.135741824786</v>
+        <v>869.3794404708858</v>
       </c>
       <c r="V25" t="n">
-        <v>964.135741824786</v>
+        <v>869.3794404708858</v>
       </c>
       <c r="W25" t="n">
-        <v>865.3534128817969</v>
+        <v>579.9622704339253</v>
       </c>
       <c r="X25" t="n">
-        <v>637.3638619837795</v>
+        <v>579.9622704339253</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.5712828402495</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,31 +6291,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>891.9605584633442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>891.9605584633442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>891.9605584633442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6549,10 +6549,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1954.109744073479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,10 +6640,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527474</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,52 +7169,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7585,13 +7585,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>78.28385769771381</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8781,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>100.2679714736569</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9726,10 +9726,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -9975,7 +9975,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10212,7 +10212,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.867153438055784</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.93335645406017</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>92.13695539594721</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037954</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.141452161594771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.08475441574862</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>143.2412368773107</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>72.80586356366665</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>213.1315079573351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>73.10421891299036</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>105.9521741567359</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.46426165442281</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>188.7284926830318</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>135.4096507323961</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-6.608047442568932e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26332,28 +26332,28 @@
         <v>117308.7179213126</v>
       </c>
       <c r="I2" t="n">
+        <v>117308.7179213126</v>
+      </c>
+      <c r="J2" t="n">
         <v>117308.7179213125</v>
       </c>
-      <c r="J2" t="n">
-        <v>117308.7179213126</v>
-      </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
+        <v>123156.2654796427</v>
+      </c>
+      <c r="O2" t="n">
         <v>123156.2654796426</v>
       </c>
-      <c r="O2" t="n">
-        <v>123156.2654796425</v>
-      </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>54505.51210371256</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134836.8924937719</v>
+        <v>134836.8924937718</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905757879</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905757986</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905757612</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758901</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685617.2085681447</v>
+        <v>-685635.7023060791</v>
       </c>
       <c r="C6" t="n">
-        <v>-98761.95176438615</v>
+        <v>-98761.95176438609</v>
       </c>
       <c r="D6" t="n">
-        <v>-98761.95176438606</v>
+        <v>-98761.95176438603</v>
       </c>
       <c r="E6" t="n">
-        <v>-500626.4381948757</v>
+        <v>-500723.8973208485</v>
       </c>
       <c r="F6" t="n">
-        <v>24533.59828202015</v>
+        <v>24436.13915604801</v>
       </c>
       <c r="G6" t="n">
-        <v>24533.59828202006</v>
+        <v>24436.13915604794</v>
       </c>
       <c r="H6" t="n">
-        <v>24533.59828202006</v>
+        <v>24436.13915604788</v>
       </c>
       <c r="I6" t="n">
-        <v>24533.59828202003</v>
+        <v>24436.13915604797</v>
       </c>
       <c r="J6" t="n">
-        <v>-151889.6209105729</v>
+        <v>-151987.0800365449</v>
       </c>
       <c r="K6" t="n">
-        <v>-52270.93337599177</v>
+        <v>-52270.93337599174</v>
       </c>
       <c r="L6" t="n">
-        <v>2234.578727720815</v>
+        <v>2234.578727720786</v>
       </c>
       <c r="M6" t="n">
-        <v>-132566.4365061163</v>
+        <v>-132566.4365061164</v>
       </c>
       <c r="N6" t="n">
-        <v>2234.578727720829</v>
+        <v>2234.578727720887</v>
       </c>
       <c r="O6" t="n">
-        <v>2234.578727720815</v>
+        <v>2234.578727720742</v>
       </c>
       <c r="P6" t="n">
-        <v>-52270.93337599178</v>
+        <v>-52270.93337599175</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26793,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>285.4198591614072</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>90.00467875170139</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.5909005365432</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>112.0040304710924</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>56.29943755183234</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>10.8164983509252</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>21.22341291046632</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.8914533365167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.51727362161415</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>247.7549506696385</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>22.54869530067481</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>107.8985739730978</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.56324392939135e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,10 +31376,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>288.1533596602011</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>185.2928442992126</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>185.2928442992128</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32576,13 +32576,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32813,13 +32813,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094697</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33047,16 +33047,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,13 +33269,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33284,13 +33284,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041508</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>327.5415626537383</v>
       </c>
       <c r="M12" t="n">
-        <v>611.7243894881827</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520605</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>250.8434100615962</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>533.2935065594328</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>508.8638741271944</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109101</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414415</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130335</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
